--- a/ses/static/upload/studentData.xlsx
+++ b/ses/static/upload/studentData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -328,6 +328,34 @@
   </si>
   <si>
     <t>张静轩</t>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20125749</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五7班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20125601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五6班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -726,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B62" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2387,6 +2415,40 @@
         <v>55</v>
       </c>
     </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98">
+        <v>49</v>
+      </c>
+      <c r="E98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
